--- a/src/api/data/产品及服务.xlsx
+++ b/src/api/data/产品及服务.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="产品及服务" sheetId="1" r:id="rId4"/>
+    <sheet name="产品及服务" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>zh</t>
   </si>
@@ -33,27 +40,6 @@
   </si>
   <si>
     <t>线管理及锁</t>
-  </si>
-  <si>
-    <t>不干胶</t>
-  </si>
-  <si>
-    <t>分条</t>
-  </si>
-  <si>
-    <t>户外膜</t>
-  </si>
-  <si>
-    <t>射频识别</t>
-  </si>
-  <si>
-    <t>面包</t>
-  </si>
-  <si>
-    <t>油酥糕点</t>
-  </si>
-  <si>
-    <t>西饼蛋糕</t>
   </si>
   <si>
     <t>食品代工生产</t>
@@ -63,126 +49,979 @@
 公司的销售和营销团队为您提供品种齐全的电子部件以及最优供应链和设计链服务支持的集成产品。我们的销售服务专门针对原始设备制造商以及电子制造服务提供商的需求个性化定制，以本土技术全球提供服务。 详情请点击以下链接：</t>
   </si>
   <si>
+    <t>公司在线束装配领域具有超过30年的经验。公司以优良的品质和技术标准为客户的新在建项目提供支持。公司精选零部件确保使用ISO9001、ISO14001、TS16949标准、美国保险商实验室(UL)/加拿大标准协会认证(CSA)以及符合RoHS（关于限制在电子电器设备中使用某些有害成分的指令）的零部件。請浏览时讯官网www.season-electric.com获取更多资料</t>
+  </si>
+  <si>
+    <t>印刷电路板</t>
+  </si>
+  <si>
+    <t>印刷电路板和测试包含全部技术组合，包括特定产品的专门程序。 所有流程按照客户要求以无铅（符合RoHS）或者不符合RoHS技术进行。</t>
+  </si>
+  <si>
+    <t>我们专注于</t>
+  </si>
+  <si>
+    <t>硅胶重整</t>
+  </si>
+  <si>
+    <t>电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高端通讯 </t>
+  </si>
+  <si>
+    <t>汽车制造</t>
+  </si>
+  <si>
+    <t>原始设备制造商装配</t>
+  </si>
+  <si>
+    <t>办公设备</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>表面贴装技术生产线</t>
+  </si>
+  <si>
+    <t>自动化生产线</t>
+  </si>
+  <si>
+    <t>模具团队</t>
+  </si>
+  <si>
+    <t>X射线检查机</t>
+  </si>
+  <si>
+    <t>质量检测实验室</t>
+  </si>
+  <si>
+    <t>硅橡胶重组机</t>
+  </si>
+  <si>
+    <t>纸张切割服务已成为标签行业的基本组成部分。鸿昇集团能够将卷筒纸切割为纸张，大型卷筒纸切割为可用尺寸，切割水损卷筒纸以及缩减卷筒纸宽度。公司服务行业包括仓储、纸制品加工、皱纹纸、造纸、商业印刷、出版以及纸制品经纪人业务。</t>
+  </si>
+  <si>
+    <t>纸张切割一般流程</t>
+  </si>
+  <si>
+    <t>接单</t>
+  </si>
+  <si>
+    <t>材料筛选</t>
+  </si>
+  <si>
+    <t>基底卷切</t>
+  </si>
+  <si>
+    <t>标签切割</t>
+  </si>
+  <si>
+    <t>实时监控</t>
+  </si>
+  <si>
+    <t>纸张装卸及包装</t>
+  </si>
+  <si>
+    <t>唯一条形码</t>
+  </si>
+  <si>
+    <t>交付客户</t>
+  </si>
+  <si>
+    <t>设计阶段的项目早期介入理想情况下在产品设计的早期开始介入。鸿昇集团实力雄厚的产品经理和设计销售工程师为客户提供全系列设计支持/技术支持服务。我们的宗旨是为尊贵的客户提供单项销售同时提供一站式服务。我们都理念定位在解决方案，产品经理和设计销售工程师将识别客户需求并提供最佳的性价比优化解决方案，我们为客户提供了以下成功设计支持案例。</t>
+  </si>
+  <si>
+    <t>售后服务的质量通常会影响客户公司是否选择再次合作。鸿昇集团为客户提供品类齐全的服务。我们客户交付产品后服务并未结束，我们将与客户持续联络保证所售商品满足客户的实际需求。</t>
+  </si>
+  <si>
+    <t>成功的供应链系统在特定的时间框架内高效地将原材料、部件和必要的资源转换成半成品/成品并交付给客户。为满足客户的严苛需求，我们需要按照标准程序完成供应链系统的全部核心。鸿昇集团自2009年起安装实施SAP系统确保采购、生产和物流全时数据的可追踪性。</t>
+  </si>
+  <si>
+    <t>鸿昇集团同时具有食品和饮品生产能力。自2008年开始投入手工烘焙，麦菲有限公司寻求逐步改变香港烘焙产品批发市场。</t>
+  </si>
+  <si>
+    <t>我们的面包师经过专业培训和手把手技能培训加以对优质健康食品的热爱，将食品科技融入传统艺术烘焙。区别于绝大多数烘焙产品批发商，我们以您的需求制作面包。如果您对面包的尺寸、形状或口味有特殊要求，请直接告诉我们，我们将竭力满足。我们的面包师甚至会按照您菜单的汤品为您推荐面包搭配。</t>
+  </si>
+  <si>
+    <t>我们自2008年起为顶级餐馆、酒店和食品店，如：普蕾特、媛歌尼斯咖啡馆、都市极品、丹.籁安、丽思卡尔顿酒店、香港洲际酒店、Sevva、Niji和Yomama提供品味不拘一格的手工面包、甜点和蛋糕，并持续推出新概念面包产品上市满足您的市场需求。请浏览麦菲有限公司官网www.mac-field.com.hk获取更多资料。</t>
+  </si>
+  <si>
+    <t>連接方案</t>
+  </si>
+  <si>
+    <t>線束加工</t>
+  </si>
+  <si>
+    <t>線路板貼片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>線管理及鎖</t>
+  </si>
+  <si>
+    <t>不干胶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不乾膠</t>
+  </si>
+  <si>
+    <t>分条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分條</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外膜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶外膜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频识别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射頻識別</t>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油酥糕点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>油酥糕點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西饼蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西餅蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品代工生產</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>线束装配</t>
-  </si>
-  <si>
-    <t>公司在线束装配领域具有超过30年的经验。公司以优良的品质和技术标准为客户的新在建项目提供支持。公司精选零部件确保使用ISO9001、ISO14001、TS16949标准、美国保险商实验室(UL)/加拿大标准协会认证(CSA)以及符合RoHS（关于限制在电子电器设备中使用某些有害成分的指令）的零部件。請浏览时讯官网www.season-electric.com获取更多资料</t>
-  </si>
-  <si>
-    <t>印刷电路板</t>
-  </si>
-  <si>
-    <t>印刷电路板和测试包含全部技术组合，包括特定产品的专门程序。 所有流程按照客户要求以无铅（符合RoHS）或者不符合RoHS技术进行。</t>
-  </si>
-  <si>
-    <t>我们专注于</t>
-  </si>
-  <si>
-    <t>硅胶重整</t>
-  </si>
-  <si>
-    <t>电池管理系统(BMS)</t>
-  </si>
-  <si>
-    <t>电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高端通讯 </t>
-  </si>
-  <si>
-    <t>汽车制造</t>
-  </si>
-  <si>
-    <t>原始设备制造商装配</t>
-  </si>
-  <si>
-    <t>办公设备</t>
-  </si>
-  <si>
-    <t>家用电器</t>
-  </si>
-  <si>
-    <t>表面贴装技术生产线</t>
-  </si>
-  <si>
-    <t>自动化生产线</t>
-  </si>
-  <si>
-    <t>模具团队</t>
-  </si>
-  <si>
-    <t>X射线检查机</t>
-  </si>
-  <si>
-    <t>质量检测实验室</t>
-  </si>
-  <si>
-    <t>硅橡胶重组机</t>
-  </si>
-  <si>
-    <t>纸张切割服务已成为标签行业的基本组成部分。鸿昇集团能够将卷筒纸切割为纸张，大型卷筒纸切割为可用尺寸，切割水损卷筒纸以及缩减卷筒纸宽度。公司服务行业包括仓储、纸制品加工、皱纹纸、造纸、商业印刷、出版以及纸制品经纪人业务。</t>
-  </si>
-  <si>
-    <t>纸张切割一般流程</t>
-  </si>
-  <si>
-    <t>接单</t>
-  </si>
-  <si>
-    <t>材料筛选</t>
-  </si>
-  <si>
-    <t>基底卷切</t>
-  </si>
-  <si>
-    <t>标签切割</t>
-  </si>
-  <si>
-    <t>实时监控</t>
-  </si>
-  <si>
-    <t>纸张装卸及包装</t>
-  </si>
-  <si>
-    <t>唯一条形码</t>
-  </si>
-  <si>
-    <t>交付客户</t>
-  </si>
-  <si>
-    <t>设计阶段的项目早期介入理想情况下在产品设计的早期开始介入。鸿昇集团实力雄厚的产品经理和设计销售工程师为客户提供全系列设计支持/技术支持服务。我们的宗旨是为尊贵的客户提供单项销售同时提供一站式服务。我们都理念定位在解决方案，产品经理和设计销售工程师将识别客户需求并提供最佳的性价比优化解决方案，我们为客户提供了以下成功设计支持案例。</t>
-  </si>
-  <si>
-    <t>售后服务的质量通常会影响客户公司是否选择再次合作。鸿昇集团为客户提供品类齐全的服务。我们客户交付产品后服务并未结束，我们将与客户持续联络保证所售商品满足客户的实际需求。</t>
-  </si>
-  <si>
-    <t>成功的供应链系统在特定的时间框架内高效地将原材料、部件和必要的资源转换成半成品/成品并交付给客户。为满足客户的严苛需求，我们需要按照标准程序完成供应链系统的全部核心。鸿昇集团自2009年起安装实施SAP系统确保采购、生产和物流全时数据的可追踪性。</t>
-  </si>
-  <si>
-    <t>鸿昇集团同时具有食品和饮品生产能力。自2008年开始投入手工烘焙，麦菲有限公司寻求逐步改变香港烘焙产品批发市场。</t>
-  </si>
-  <si>
-    <t>我们的面包师经过专业培训和手把手技能培训加以对优质健康食品的热爱，将食品科技融入传统艺术烘焙。区别于绝大多数烘焙产品批发商，我们以您的需求制作面包。如果您对面包的尺寸、形状或口味有特殊要求，请直接告诉我们，我们将竭力满足。我们的面包师甚至会按照您菜单的汤品为您推荐面包搭配。</t>
-  </si>
-  <si>
-    <t>我们自2008年起为顶级餐馆、酒店和食品店，如：普蕾特、媛歌尼斯咖啡馆、都市极品、丹.籁安、丽思卡尔顿酒店、香港洲际酒店、Sevva、Niji和Yomama提供品味不拘一格的手工面包、甜点和蛋糕，并持续推出新概念面包产品上市满足您的市场需求。请浏览麦菲有限公司官网www.mac-field.com.hk获取更多资料。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>線束裝配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司線上束裝配領域具有超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年的經驗。公司以優良的品質和科技標準為客戶的新在建項目提供支援。公司精選零部件確保使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ISO9001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ISO14001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>TS16949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>標準、美國保險商實驗室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>UL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加拿大標準協會認證（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>CSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）以及符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>RoHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（關於限制在電子電器設備中使用某些有害成分的指令）的零部件。請瀏覽時訊官網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>www.season-electric.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>獲取更多資料</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印刷電路板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>印刷電路板和測試包含全部科技組合，包括特定產品的專門程式。所有流程按照客戶要求以無鉛（符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>RoHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）或者不符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>RoHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技進行。</t>
+    </r>
+  </si>
+  <si>
+    <t>我們專注於</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽膠重整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池管理系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(BMS)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>電池管理系統（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>BMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源</t>
+  </si>
+  <si>
+    <t>高端通訊</t>
+  </si>
+  <si>
+    <t>汽車製造</t>
+  </si>
+  <si>
+    <t>辦公設備</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始設備製造商裝配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>office equipment</t>
+  </si>
+  <si>
+    <t>家用電器</t>
+  </si>
+  <si>
+    <t>Household Electric Appliances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面貼裝科技生產線</t>
+  </si>
+  <si>
+    <t>自動化生產線</t>
+  </si>
+  <si>
+    <t>模具團隊</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>射線檢查機</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>質量檢測實驗室</t>
+  </si>
+  <si>
+    <t>矽橡膠重組機</t>
+  </si>
+  <si>
+    <t>紙張切割服務已成為標籤行業的基本組成部分。鴻昇集團能够將捲筒紙切割為紙張，大型捲筒紙切割為可用尺寸，切割水損捲筒紙以及縮減捲筒紙寬度。公司服務行業包括倉儲、紙製品加工、皺紋紙、造紙、商業印刷、出版以及紙製品經紀人業務。</t>
+  </si>
+  <si>
+    <t>紙張切割一般流程</t>
+  </si>
+  <si>
+    <t>接單</t>
+  </si>
+  <si>
+    <t>資料篩選</t>
+  </si>
+  <si>
+    <t>標籤切割</t>
+  </si>
+  <si>
+    <t>即時監控</t>
+  </si>
+  <si>
+    <t>紙張裝卸及包裝</t>
+  </si>
+  <si>
+    <t>唯一條碼</t>
+  </si>
+  <si>
+    <t>交付客戶</t>
+  </si>
+  <si>
+    <r>
+      <t>設計階段的項目早期介入理想情况下在產品設計的早期開始介入。鴻昇集團實力雄厚的產品經理和設計銷售工程師為客戶提供全系列設計支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技術支援服務。我們的宗旨是為尊貴的客戶提供單項銷售同時提供一站式服務。我們都理念定位在解決方案，產品經理和設計銷售工程師將識別客戶需求並提供最佳的性價比優化解決方案，我們為客戶提供了以下成功設計支持案例。</t>
+    </r>
+  </si>
+  <si>
+    <t>售後服務的質量通常會影響客戶公司是否選擇再次合作。鴻昇集團為客戶提供品類齊全的服務。我們客戶交付產品後服務並未結束，我們將與客戶持續聯絡保證所售商品滿足客戶的實際需求。</t>
+  </si>
+  <si>
+    <r>
+      <t>成功的供應鏈系統在特定的時間框架內高效地將原材料、部件和必要的資源轉換成半成品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成品並交付給客戶。為滿足客戶的嚴苛需求，我們需要按照標準程式完成供應鏈系統的全部覈心。鴻昇集團自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年起安裝實施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>SAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系統確保採購、生產和物流全時數據的可追跡性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>鴻昇集團同時具有食品和飲品生產能力。自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年開始投入手工烘焙，麥菲有限公司尋求逐步改變香港烘焙產品批發市場。</t>
+    </r>
+  </si>
+  <si>
+    <t>我們的麵包師經過專業培訓和手把手技能培訓加以對優質健康食品的熱愛，將食品科技融入傳統藝術烘焙。區別於絕大多數烘焙產品批發商，我們以您的需求製作麵包。如果您對麵包的尺寸、形狀或口味有特殊要求，請直接告訴我們，我們將竭力滿足。我們的麵包師甚至會按照您選單的湯品為您推薦麵包搭配。</t>
+  </si>
+  <si>
+    <r>
+      <t>我們自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年起為頂級餐館、飯店和食品店，如：普蕾特、媛歌尼斯咖啡館、都市極品、丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>籟安、麗思卡爾頓飯店、香港洲際飯店、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Sevva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Niji</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Yomama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供品味不拘一格的手工麵包、甜點和蛋糕，並持續推出新概念麵包產品上市滿足您的市場需求。請瀏覽麥菲有限公司官網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>www.mac-field.com.hk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>獲取更多資料。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港鴻昇集團的業務遍佈絕大多數中國地區，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>個都市設立辦事處，銷售連接器、線束、鎖、尼龍紮帶、絕緣體、鉸鏈以及機械部件。
+公司的銷售和行銷團隊為您提供品種齊全的電子部件以及最優供應鏈和設計鏈服務支援的集成產品。我們的銷售服務專門針對原始設備製造商以及電子製造服務提供者的需求個性化定制，以本土科技全球提供服務。詳情請點擊以下連結：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-connectivity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly &amp; Harness</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+  </si>
+  <si>
+    <t>Cable Management &amp; Locking</t>
+  </si>
+  <si>
+    <t>Adhesive Materials</t>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+  </si>
+  <si>
+    <t>Outdoor Film/Screen</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pastry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong Hung Shang Group has an extensive coverage in China Region, with offices in China more than 8 locations. We distribute interconnect, label, locks, cable ties, insulators, hinge and mechanical components.                                Our Sales &amp; Marketing team provides a full range of electronic component solutions and integrated products supported by the best supply-chain and design-chain services available. With distribution services tailored specifically for the needs of original equipment manufacturers and electronic manufacturing services providers, we offer global reach with local expertise. Please click below lines for more information.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly</t>
+  </si>
+  <si>
+    <t>We have more than 30 years of experience in cable assembly. With our high quality and technical standard, we hope to support your new and on-going projects. When choosing components, we make sure to select those with certification marks like ISO9001, ISO14001, TS16949, UL/CSA and RoHS-compliant components.For more information,please visit Season website at www.season-electric.com</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCBA and test comprises all technology combinations, including product-specific special processes. All processes are available in lead-free (RoHS-compliant) or RoHS-non compliant technology, according to customer requirements.</t>
+  </si>
+  <si>
+    <t>We specialize in:</t>
+  </si>
+  <si>
+    <t>Battery Management System (BMS)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Supply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-end Telecom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automobile manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silica gel reformer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original equipment manufacturer assembly</t>
+  </si>
+  <si>
+    <t>SMT Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automation Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molding Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Ray Examination Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Testing Laboratory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon Rubber Reforming Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper slitting service become an essential part in label industry. Hung Shang Group is able to converting rolls for sheeting, converting excessive roll stock into usable sizes, cutting losses from water damage, and web width reduction. Industries served include warehousing, converting, corrugation, paper mills, commercial printing, publishing, and paper brokerages.</t>
+  </si>
+  <si>
+    <t>General Process of Paper Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Receive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Selection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Roll Cutting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>real time Monitoring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Unload &amp; Packing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Barcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deliver to  customer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early project involvement (EPI) from design phase ideally involve with a product begins with the very early stages of the design phase. With our strong Product Manager (PM) and Design Sales Engineer (DSE), Hung Shang Group is capable to provide a full-ranged of design-in/spec-in service to our customer. Our aim is not only selling a single part to our valued customer, we hope to provide a one-stop-shop service to our customer. Our mind of thinking is solution-orientated, our PM and DSE will identify the need from customer and provide the best, optimize and cost effective solution to customer. We have below successful design-in case with our customers:</t>
+  </si>
+  <si>
+    <t>The quality of after-sales service will often have an impact on whether the customer chooses to do business with a certain company a second time. Hung Shang Group providing our customers a full range of services. Our service is not ended after we deliver the goods to our customers, we will keep contact with customer constantly to ensure our selling goods can meet customer actual need.</t>
+  </si>
+  <si>
+    <t>A successful supply chain system is efficiently transform the raw materials, components and necessary resources into a semi/full products within a certain timeframe and deliver to our customers. In order to fulfill the stringent demand from our customers, we need to operate with a standard procedure for all the major core in our supply chain system. Hung Shang Group had been implement SAP system since 2009 to ensure the traceability of our procurement, production and logistic data at all time.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung Shang Group also has the ability to produce food &amp; beverages. Devoted to the fine art of artisan baking since 2008, Macfield Limited is on a quest to change the wholesale bakery market in Hong Kong, one crumb at a time. </t>
+  </si>
+  <si>
+    <t>For more detail information and promotion program please visit our Macfield Limited official website at www.mac-field.com.hk</t>
+  </si>
+  <si>
+    <t>With professional training, hands-on skills (we mean it literally) and a love for quality healthy food, our breadsmiths set to knead traditional artisan baking and food science together. Unlike most other wholesale bakeries, we make our bread with you in mind. If you would like to request a special size, shape or taste for your bread, simply let us know and we will work that out with you. Our breadsmiths can even advise on which bread goes with the soup on your menu!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -194,7 +1033,49 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,65 +1147,158 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa7a7a7"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFA7A7A7"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -450,7 +1424,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -459,7 +1433,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -468,7 +1442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -542,7 +1516,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -550,7 +1524,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -569,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,9 +1794,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -837,7 +1817,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -845,7 +1825,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -864,7 +1844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +1870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +2052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,9 +2091,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1127,7 +2113,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1146,7 +2132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +2162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +2188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +2214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +2240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +2266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +2292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +2318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +2344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +2370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,388 +2383,590 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F8:F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="10.3" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="19" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="5">
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="5">
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" ht="115" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" ht="101" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" t="s" s="5">
+      <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" ht="45" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" t="s" s="5">
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" t="s" s="5">
+      <c r="B29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="5">
+      <c r="B31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" t="s" s="5">
+      <c r="B33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" ht="17" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="B34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" ht="17" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="B35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="B36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" t="s" s="5">
+      <c r="B37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="B38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="B39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="B40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" t="s" s="5">
+      <c r="B41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" ht="73" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="B42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" ht="17" customHeight="1">
-      <c r="A35" t="s" s="5">
+      <c r="B43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" ht="17" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="B44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" ht="17" customHeight="1">
-      <c r="A37" t="s" s="5">
+      <c r="B45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" ht="17" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="B46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" ht="17" customHeight="1">
-      <c r="A39" t="s" s="5">
+      <c r="B47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" ht="17" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="B48" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" ht="17" customHeight="1">
-      <c r="A41" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" ht="17" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" ht="17" customHeight="1">
-      <c r="A43" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" ht="115" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" ht="59" customHeight="1">
-      <c r="A45" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" ht="87" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" ht="45" customHeight="1">
-      <c r="A47" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" ht="87" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" ht="101" customHeight="1">
-      <c r="A49" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" ht="13" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/产品及服务.xlsx
+++ b/src/api/data/产品及服务.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="产品及服务" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -133,18 +128,6 @@
     <t>设计阶段的项目早期介入理想情况下在产品设计的早期开始介入。鸿昇集团实力雄厚的产品经理和设计销售工程师为客户提供全系列设计支持/技术支持服务。我们的宗旨是为尊贵的客户提供单项销售同时提供一站式服务。我们都理念定位在解决方案，产品经理和设计销售工程师将识别客户需求并提供最佳的性价比优化解决方案，我们为客户提供了以下成功设计支持案例。</t>
   </si>
   <si>
-    <t>售后服务的质量通常会影响客户公司是否选择再次合作。鸿昇集团为客户提供品类齐全的服务。我们客户交付产品后服务并未结束，我们将与客户持续联络保证所售商品满足客户的实际需求。</t>
-  </si>
-  <si>
-    <t>成功的供应链系统在特定的时间框架内高效地将原材料、部件和必要的资源转换成半成品/成品并交付给客户。为满足客户的严苛需求，我们需要按照标准程序完成供应链系统的全部核心。鸿昇集团自2009年起安装实施SAP系统确保采购、生产和物流全时数据的可追踪性。</t>
-  </si>
-  <si>
-    <t>鸿昇集团同时具有食品和饮品生产能力。自2008年开始投入手工烘焙，麦菲有限公司寻求逐步改变香港烘焙产品批发市场。</t>
-  </si>
-  <si>
-    <t>我们的面包师经过专业培训和手把手技能培训加以对优质健康食品的热爱，将食品科技融入传统艺术烘焙。区别于绝大多数烘焙产品批发商，我们以您的需求制作面包。如果您对面包的尺寸、形状或口味有特殊要求，请直接告诉我们，我们将竭力满足。我们的面包师甚至会按照您菜单的汤品为您推荐面包搭配。</t>
-  </si>
-  <si>
     <t>我们自2008年起为顶级餐馆、酒店和食品店，如：普蕾特、媛歌尼斯咖啡馆、都市极品、丹.籁安、丽思卡尔顿酒店、香港洲际酒店、Sevva、Niji和Yomama提供品味不拘一格的手工面包、甜点和蛋糕，并持续推出新概念面包产品上市满足您的市场需求。请浏览麦菲有限公司官网www.mac-field.com.hk获取更多资料。</t>
   </si>
   <si>
@@ -615,11 +598,8 @@
     </r>
   </si>
   <si>
-    <t>售後服務的質量通常會影響客戶公司是否選擇再次合作。鴻昇集團為客戶提供品類齊全的服務。我們客戶交付產品後服務並未結束，我們將與客戶持續聯絡保證所售商品滿足客戶的實際需求。</t>
-  </si>
-  <si>
-    <r>
-      <t>成功的供應鏈系統在特定的時間框架內高效地將原材料、部件和必要的資源轉換成半成品</t>
+    <r>
+      <t>我們自</t>
     </r>
     <r>
       <rPr>
@@ -627,7 +607,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>/</t>
+      <t>2008</t>
     </r>
     <r>
       <rPr>
@@ -637,7 +617,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>成品並交付給客戶。為滿足客戶的嚴苛需求，我們需要按照標準程式完成供應鏈系統的全部覈心。鴻昇集團自</t>
+      <t>年起為頂級餐館、飯店和食品店，如：普蕾特、媛歌尼斯咖啡館、都市極品、丹</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +625,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>2009</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -655,7 +635,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年起安裝實施</t>
+      <t>籟安、麗思卡爾頓飯店、香港洲際飯店、</t>
     </r>
     <r>
       <rPr>
@@ -663,7 +643,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>SAP</t>
+      <t>Sevva</t>
     </r>
     <r>
       <rPr>
@@ -673,12 +653,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系統確保採購、生產和物流全時數據的可追跡性。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>鴻昇集團同時具有食品和飲品生產能力。自</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -686,7 +661,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>2008</t>
+      <t>Niji</t>
     </r>
     <r>
       <rPr>
@@ -696,15 +671,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年開始投入手工烘焙，麥菲有限公司尋求逐步改變香港烘焙產品批發市場。</t>
-    </r>
-  </si>
-  <si>
-    <t>我們的麵包師經過專業培訓和手把手技能培訓加以對優質健康食品的熱愛，將食品科技融入傳統藝術烘焙。區別於絕大多數烘焙產品批發商，我們以您的需求製作麵包。如果您對麵包的尺寸、形狀或口味有特殊要求，請直接告訴我們，我們將竭力滿足。我們的麵包師甚至會按照您選單的湯品為您推薦麵包搭配。</t>
-  </si>
-  <si>
-    <r>
-      <t>我們自</t>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -712,7 +679,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>2008</t>
+      <t>Yomama</t>
     </r>
     <r>
       <rPr>
@@ -722,7 +689,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年起為頂級餐館、飯店和食品店，如：普蕾特、媛歌尼斯咖啡館、都市極品、丹</t>
+      <t>提供品味不拘一格的手工麵包、甜點和蛋糕，並持續推出新概念麵包產品上市滿足您的市場需求。請瀏覽麥菲有限公司官網</t>
     </r>
     <r>
       <rPr>
@@ -730,7 +697,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>.</t>
+      <t>www.mac-field.com.hk</t>
     </r>
     <r>
       <rPr>
@@ -740,16 +707,10 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>籟安、麗思卡爾頓飯店、香港洲際飯店、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Sevva</t>
-    </r>
+      <t>獲取更多資料。</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -758,7 +719,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、</t>
+      <t>香港鴻昇集團的業務遍佈絕大多數中國地區，在</t>
     </r>
     <r>
       <rPr>
@@ -766,7 +727,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>Niji</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -776,16 +737,190 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Yomama</t>
-    </r>
+      <t>個都市設立辦事處，銷售連接器、線束、鎖、尼龍紮帶、絕緣體、鉸鏈以及機械部件。
+公司的銷售和行銷團隊為您提供品種齊全的電子部件以及最優供應鏈和設計鏈服務支援的集成產品。我們的銷售服務專門針對原始設備製造商以及電子製造服務提供者的需求個性化定制，以本土科技全球提供服務。詳情請點擊以下連結：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-connectivity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly &amp; Harness</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+  </si>
+  <si>
+    <t>Cable Management &amp; Locking</t>
+  </si>
+  <si>
+    <t>Adhesive Materials</t>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+  </si>
+  <si>
+    <t>Outdoor Film/Screen</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pastry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong Hung Shang Group has an extensive coverage in China Region, with offices in China more than 8 locations. We distribute interconnect, label, locks, cable ties, insulators, hinge and mechanical components.                                Our Sales &amp; Marketing team provides a full range of electronic component solutions and integrated products supported by the best supply-chain and design-chain services available. With distribution services tailored specifically for the needs of original equipment manufacturers and electronic manufacturing services providers, we offer global reach with local expertise. Please click below lines for more information.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly</t>
+  </si>
+  <si>
+    <t>We have more than 30 years of experience in cable assembly. With our high quality and technical standard, we hope to support your new and on-going projects. When choosing components, we make sure to select those with certification marks like ISO9001, ISO14001, TS16949, UL/CSA and RoHS-compliant components.For more information,please visit Season website at www.season-electric.com</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCBA and test comprises all technology combinations, including product-specific special processes. All processes are available in lead-free (RoHS-compliant) or RoHS-non compliant technology, according to customer requirements.</t>
+  </si>
+  <si>
+    <t>We specialize in:</t>
+  </si>
+  <si>
+    <t>Battery Management System (BMS)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Supply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-end Telecom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automobile manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silica gel reformer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original equipment manufacturer assembly</t>
+  </si>
+  <si>
+    <t>SMT Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automation Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molding Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Ray Examination Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Testing Laboratory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon Rubber Reforming Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper slitting service become an essential part in label industry. Hung Shang Group is able to converting rolls for sheeting, converting excessive roll stock into usable sizes, cutting losses from water damage, and web width reduction. Industries served include warehousing, converting, corrugation, paper mills, commercial printing, publishing, and paper brokerages.</t>
+  </si>
+  <si>
+    <t>General Process of Paper Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Receive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Selection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Roll Cutting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>real time Monitoring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Unload &amp; Packing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Barcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deliver to  customer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early project involvement (EPI) from design phase ideally involve with a product begins with the very early stages of the design phase. With our strong Product Manager (PM) and Design Sales Engineer (DSE), Hung Shang Group is capable to provide a full-ranged of design-in/spec-in service to our customer. Our aim is not only selling a single part to our valued customer, we hope to provide a one-stop-shop service to our customer. Our mind of thinking is solution-orientated, our PM and DSE will identify the need from customer and provide the best, optimize and cost effective solution to customer. We have below successful design-in case with our customers:</t>
+  </si>
+  <si>
+    <t>The quality of after-sales service will often have an impact on whether the customer chooses to do business with a certain company a second time. Hung Shang Group providing our customers a full range of services. Our service is not ended after we deliver the goods to our customers, we will keep contact with customer constantly to ensure our selling goods can meet customer actual need.</t>
+  </si>
+  <si>
+    <t>A successful supply chain system is efficiently transform the raw materials, components and necessary resources into a semi/full products within a certain timeframe and deliver to our customers. In order to fulfill the stringent demand from our customers, we need to operate with a standard procedure for all the major core in our supply chain system. Hung Shang Group had been implement SAP system since 2009 to ensure the traceability of our procurement, production and logistic data at all time.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung Shang Group also has the ability to produce food &amp; beverages. Devoted to the fine art of artisan baking since 2008, Macfield Limited is on a quest to change the wholesale bakery market in Hong Kong, one crumb at a time. </t>
+  </si>
+  <si>
+    <t>For more detail information and promotion program please visit our Macfield Limited official website at www.mac-field.com.hk</t>
+  </si>
+  <si>
+    <t>With professional training, hands-on skills (we mean it literally) and a love for quality healthy food, our breadsmiths set to knead traditional artisan baking and food science together. Unlike most other wholesale bakeries, we make our bread with you in mind. If you would like to request a special size, shape or taste for your bread, simply let us know and we will work that out with you. Our breadsmiths can even advise on which bread goes with the soup on your menu!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>達成交易只是合作的開始，而我們的服務不僅結束于產品交付之時，專業貼心的售后服務同樣是我們竭盡所能提供的支持，相信這也是客戶選擇與鴻昇持續合作的重要原因之一。基於我們對客戶的熱忱專業服務，我們在交付產品之後，仍將持續与客户保持聯絡和跟進，以確保所售商品满足客户的实际需求。</t>
+  </si>
+  <si>
+    <t>达成交易只是合作的开始，而我们的服务不仅结束于产品交付之时，专业贴心的售后服务同样是我们竭尽所能提供的支持，相信这也是客户选择与鸿昇持续合作的重要原因之一。基于我们对客户的热忱专业服务，我们在交付产品之后，仍将持续与客户保持联络和跟进，以确保所售商品满足客户的实际需求。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>為更好的為客戶提供全方位服務，鴻昇集團自2009年起實施安裝SAP系統，確保採購、生產和物流全時數據的可追蹤性。確保在特定的時間內高效安全的將原材料、部件和必要的資源轉換成半成品/成品并安全交付到客戶手裡，以滿足客戶的需求。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -794,7 +929,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>提供品味不拘一格的手工麵包、甜點和蛋糕，並持續推出新概念麵包產品上市滿足您的市場需求。請瀏覽麥菲有限公司官網</t>
+      <t>为更好的为客户提供全方位服务，鸿昇集团自</t>
     </r>
     <r>
       <rPr>
@@ -802,7 +937,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>www.mac-field.com.hk</t>
+      <t>2009</t>
     </r>
     <r>
       <rPr>
@@ -812,10 +947,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>獲取更多資料。</t>
-    </r>
-  </si>
-  <si>
+      <t>年起实施安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>SAP</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -824,7 +965,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>香港鴻昇集團的業務遍佈絕大多數中國地區，在</t>
+      <t>系统，确保采购、生产和物流全时数据的可追踪性。确保在特定的时间内高效地将原材料、部件和必要的资源转换成半成品</t>
     </r>
     <r>
       <rPr>
@@ -832,7 +973,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>8</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -842,184 +983,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>個都市設立辦事處，銷售連接器、線束、鎖、尼龍紮帶、絕緣體、鉸鏈以及機械部件。
-公司的銷售和行銷團隊為您提供品種齊全的電子部件以及最優供應鏈和設計鏈服務支援的集成產品。我們的銷售服務專門針對原始設備製造商以及電子製造服務提供者的需求個性化定制，以本土科技全球提供服務。詳情請點擊以下連結：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-connectivity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cable Assembly &amp; Harness</t>
-  </si>
-  <si>
-    <t>PCBA </t>
-  </si>
-  <si>
-    <t>Cable Management &amp; Locking</t>
-  </si>
-  <si>
-    <t>Adhesive Materials</t>
-  </si>
-  <si>
-    <t>Label Slitting</t>
-  </si>
-  <si>
-    <t>Outdoor Film/Screen</t>
-  </si>
-  <si>
-    <t>RFID</t>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pastry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OEM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong Hung Shang Group has an extensive coverage in China Region, with offices in China more than 8 locations. We distribute interconnect, label, locks, cable ties, insulators, hinge and mechanical components.                                Our Sales &amp; Marketing team provides a full range of electronic component solutions and integrated products supported by the best supply-chain and design-chain services available. With distribution services tailored specifically for the needs of original equipment manufacturers and electronic manufacturing services providers, we offer global reach with local expertise. Please click below lines for more information.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cable Assembly</t>
-  </si>
-  <si>
-    <t>We have more than 30 years of experience in cable assembly. With our high quality and technical standard, we hope to support your new and on-going projects. When choosing components, we make sure to select those with certification marks like ISO9001, ISO14001, TS16949, UL/CSA and RoHS-compliant components.For more information,please visit Season website at www.season-electric.com</t>
-  </si>
-  <si>
-    <t>PCBA </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCBA and test comprises all technology combinations, including product-specific special processes. All processes are available in lead-free (RoHS-compliant) or RoHS-non compliant technology, according to customer requirements.</t>
-  </si>
-  <si>
-    <t>We specialize in:</t>
-  </si>
-  <si>
-    <t>Battery Management System (BMS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Supply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-end Telecom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automobile manufacturing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silica gel reformer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Original equipment manufacturer assembly</t>
-  </si>
-  <si>
-    <t>SMT Production Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automation Production Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Molding Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X-Ray Examination Machine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality Testing Laboratory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silicon Rubber Reforming Machine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper slitting service become an essential part in label industry. Hung Shang Group is able to converting rolls for sheeting, converting excessive roll stock into usable sizes, cutting losses from water damage, and web width reduction. Industries served include warehousing, converting, corrugation, paper mills, commercial printing, publishing, and paper brokerages.</t>
-  </si>
-  <si>
-    <t>General Process of Paper Slitting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order Receive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Selection</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Roll Cutting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label Slitting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>real time Monitoring</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper Unload &amp; Packing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Barcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deliver to  customer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Early project involvement (EPI) from design phase ideally involve with a product begins with the very early stages of the design phase. With our strong Product Manager (PM) and Design Sales Engineer (DSE), Hung Shang Group is capable to provide a full-ranged of design-in/spec-in service to our customer. Our aim is not only selling a single part to our valued customer, we hope to provide a one-stop-shop service to our customer. Our mind of thinking is solution-orientated, our PM and DSE will identify the need from customer and provide the best, optimize and cost effective solution to customer. We have below successful design-in case with our customers:</t>
-  </si>
-  <si>
-    <t>The quality of after-sales service will often have an impact on whether the customer chooses to do business with a certain company a second time. Hung Shang Group providing our customers a full range of services. Our service is not ended after we deliver the goods to our customers, we will keep contact with customer constantly to ensure our selling goods can meet customer actual need.</t>
-  </si>
-  <si>
-    <t>A successful supply chain system is efficiently transform the raw materials, components and necessary resources into a semi/full products within a certain timeframe and deliver to our customers. In order to fulfill the stringent demand from our customers, we need to operate with a standard procedure for all the major core in our supply chain system. Hung Shang Group had been implement SAP system since 2009 to ensure the traceability of our procurement, production and logistic data at all time.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hung Shang Group also has the ability to produce food &amp; beverages. Devoted to the fine art of artisan baking since 2008, Macfield Limited is on a quest to change the wholesale bakery market in Hong Kong, one crumb at a time. </t>
-  </si>
-  <si>
-    <t>For more detail information and promotion program please visit our Macfield Limited official website at www.mac-field.com.hk</t>
-  </si>
-  <si>
-    <t>With professional training, hands-on skills (we mean it literally) and a love for quality healthy food, our breadsmiths set to knead traditional artisan baking and food science together. Unlike most other wholesale bakeries, we make our bread with you in mind. If you would like to request a special size, shape or taste for your bread, simply let us know and we will work that out with you. Our breadsmiths can even advise on which bread goes with the soup on your menu!</t>
+      <t>成品并安全交付到客户手里，以满足客户的需求。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鴻昇集團自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年開始投入手工烘焙，集团旗下麥菲有限公司同時具有食品和飲品生產能力，尋求逐步改變香港烘焙產品批發市場。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿昇集团自2008年开始投入手工烘焙，集团旗下麦菲有限公司同时具备食品和饮品的生产能力，寻求逐步改变香港烘焙产品批发市场。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的麵包師經過專業培訓加以對優質健康食品的熱愛，將食品科技融入傳統藝術烘焙。區別於絕大多數烘焙產品批發商，我們以您的需求製作麵包。如果您對麵包的尺寸、形狀或口味有特殊要求，請直接告訴我們，我們將竭力滿足。我們的麵包師甚至會按照您選單的湯品為您推薦麵包搭配。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的面包师经过专业培训加以对优质健康食品的热爱，将食品科技融入传统艺术烘焙。区别于绝大多数烘焙产品批发商，我们以您的需求制作面包。如果您对面包的尺寸、形状或口味有特殊要求，请直接告诉我们，我们将竭力满足。我们的面包师甚至会按照您菜单的汤品为您推荐面包搭配。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1073,6 +1082,13 @@
     <font>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1151,7 +1167,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1211,6 +1227,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2401,25 +2423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="10.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="19" customWidth="1"/>
+    <col min="1" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.7109375" style="19" customWidth="1"/>
     <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2430,403 +2451,403 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="C7" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="C8" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="C9" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="C10" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="C11" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="228.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="130.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72.95" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
@@ -2834,131 +2855,131 @@
         <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="135.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="135.75" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="135.75" customHeight="1">
+      <c r="A46" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="C46" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" customHeight="1">
+      <c r="A47" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="144.75" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="101.1" customHeight="1">
+      <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="B49" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.95" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="16"/>

--- a/src/api/data/产品及服务.xlsx
+++ b/src/api/data/产品及服务.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4271FED-D6B4-4E32-A304-DC6CD9E44FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品及服务" sheetId="1" r:id="rId1"/>
@@ -548,9 +554,6 @@
     <t>矽橡膠重組機</t>
   </si>
   <si>
-    <t>紙張切割服務已成為標籤行業的基本組成部分。鴻昇集團能够將捲筒紙切割為紙張，大型捲筒紙切割為可用尺寸，切割水損捲筒紙以及縮減捲筒紙寬度。公司服務行業包括倉儲、紙製品加工、皺紋紙、造紙、商業印刷、出版以及紙製品經紀人業務。</t>
-  </si>
-  <si>
     <t>紙張切割一般流程</t>
   </si>
   <si>
@@ -576,7 +579,7 @@
   </si>
   <si>
     <r>
-      <t>設計階段的項目早期介入理想情况下在產品設計的早期開始介入。鴻昇集團實力雄厚的產品經理和設計銷售工程師為客戶提供全系列設計支持</t>
+      <t>我們自</t>
     </r>
     <r>
       <rPr>
@@ -584,7 +587,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>/</t>
+      <t>2008</t>
     </r>
     <r>
       <rPr>
@@ -594,12 +597,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>技術支援服務。我們的宗旨是為尊貴的客戶提供單項銷售同時提供一站式服務。我們都理念定位在解決方案，產品經理和設計銷售工程師將識別客戶需求並提供最佳的性價比優化解決方案，我們為客戶提供了以下成功設計支持案例。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>我們自</t>
+      <t>年起為頂級餐館、飯店和食品店，如：普蕾特、媛歌尼斯咖啡館、都市極品、丹</t>
     </r>
     <r>
       <rPr>
@@ -607,7 +605,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>2008</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -617,7 +615,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年起為頂級餐館、飯店和食品店，如：普蕾特、媛歌尼斯咖啡館、都市極品、丹</t>
+      <t>籟安、麗思卡爾頓飯店、香港洲際飯店、</t>
     </r>
     <r>
       <rPr>
@@ -625,7 +623,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>.</t>
+      <t>Sevva</t>
     </r>
     <r>
       <rPr>
@@ -635,7 +633,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>籟安、麗思卡爾頓飯店、香港洲際飯店、</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -643,7 +641,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>Sevva</t>
+      <t>Niji</t>
     </r>
     <r>
       <rPr>
@@ -653,7 +651,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、</t>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -661,7 +659,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>Niji</t>
+      <t>Yomama</t>
     </r>
     <r>
       <rPr>
@@ -671,7 +669,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
+      <t>提供品味不拘一格的手工麵包、甜點和蛋糕，並持續推出新概念麵包產品上市滿足您的市場需求。請瀏覽麥菲有限公司官網</t>
     </r>
     <r>
       <rPr>
@@ -679,7 +677,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>Yomama</t>
+      <t>www.mac-field.com.hk</t>
     </r>
     <r>
       <rPr>
@@ -689,16 +687,181 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>提供品味不拘一格的手工麵包、甜點和蛋糕，並持續推出新概念麵包產品上市滿足您的市場需求。請瀏覽麥菲有限公司官網</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>www.mac-field.com.hk</t>
-    </r>
+      <t>獲取更多資料。</t>
+    </r>
+  </si>
+  <si>
+    <t>Inter-connectivity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly &amp; Harness</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+  </si>
+  <si>
+    <t>Cable Management &amp; Locking</t>
+  </si>
+  <si>
+    <t>Adhesive Materials</t>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+  </si>
+  <si>
+    <t>Outdoor Film/Screen</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pastry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong Hung Shang Group has an extensive coverage in China Region, with offices in China more than 8 locations. We distribute interconnect, label, locks, cable ties, insulators, hinge and mechanical components.                                Our Sales &amp; Marketing team provides a full range of electronic component solutions and integrated products supported by the best supply-chain and design-chain services available. With distribution services tailored specifically for the needs of original equipment manufacturers and electronic manufacturing services providers, we offer global reach with local expertise. Please click below lines for more information.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly</t>
+  </si>
+  <si>
+    <t>We have more than 30 years of experience in cable assembly. With our high quality and technical standard, we hope to support your new and on-going projects. When choosing components, we make sure to select those with certification marks like ISO9001, ISO14001, TS16949, UL/CSA and RoHS-compliant components.For more information,please visit Season website at www.season-electric.com</t>
+  </si>
+  <si>
+    <t>PCBA </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCBA and test comprises all technology combinations, including product-specific special processes. All processes are available in lead-free (RoHS-compliant) or RoHS-non compliant technology, according to customer requirements.</t>
+  </si>
+  <si>
+    <t>We specialize in:</t>
+  </si>
+  <si>
+    <t>Battery Management System (BMS)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Supply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-end Telecom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automobile manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silica gel reformer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original equipment manufacturer assembly</t>
+  </si>
+  <si>
+    <t>SMT Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automation Production Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molding Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Ray Examination Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Testing Laboratory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon Rubber Reforming Machine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper slitting service become an essential part in label industry. Hung Shang Group is able to converting rolls for sheeting, converting excessive roll stock into usable sizes, cutting losses from water damage, and web width reduction. Industries served include warehousing, converting, corrugation, paper mills, commercial printing, publishing, and paper brokerages.</t>
+  </si>
+  <si>
+    <t>General Process of Paper Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Receive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Selection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Roll Cutting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label Slitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>real time Monitoring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Unload &amp; Packing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Barcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deliver to  customer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early project involvement (EPI) from design phase ideally involve with a product begins with the very early stages of the design phase. With our strong Product Manager (PM) and Design Sales Engineer (DSE), Hung Shang Group is capable to provide a full-ranged of design-in/spec-in service to our customer. Our aim is not only selling a single part to our valued customer, we hope to provide a one-stop-shop service to our customer. Our mind of thinking is solution-orientated, our PM and DSE will identify the need from customer and provide the best, optimize and cost effective solution to customer. We have below successful design-in case with our customers:</t>
+  </si>
+  <si>
+    <t>The quality of after-sales service will often have an impact on whether the customer chooses to do business with a certain company a second time. Hung Shang Group providing our customers a full range of services. Our service is not ended after we deliver the goods to our customers, we will keep contact with customer constantly to ensure our selling goods can meet customer actual need.</t>
+  </si>
+  <si>
+    <t>A successful supply chain system is efficiently transform the raw materials, components and necessary resources into a semi/full products within a certain timeframe and deliver to our customers. In order to fulfill the stringent demand from our customers, we need to operate with a standard procedure for all the major core in our supply chain system. Hung Shang Group had been implement SAP system since 2009 to ensure the traceability of our procurement, production and logistic data at all time.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung Shang Group also has the ability to produce food &amp; beverages. Devoted to the fine art of artisan baking since 2008, Macfield Limited is on a quest to change the wholesale bakery market in Hong Kong, one crumb at a time. </t>
+  </si>
+  <si>
+    <t>For more detail information and promotion program please visit our Macfield Limited official website at www.mac-field.com.hk</t>
+  </si>
+  <si>
+    <t>With professional training, hands-on skills (we mean it literally) and a love for quality healthy food, our breadsmiths set to knead traditional artisan baking and food science together. Unlike most other wholesale bakeries, we make our bread with you in mind. If you would like to request a special size, shape or taste for your bread, simply let us know and we will work that out with you. Our breadsmiths can even advise on which bread goes with the soup on your menu!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成交易只是合作的开始，而我们的服务不仅结束于产品交付之时，专业贴心的售后服务同样是我们竭尽所能提供的支持，相信这也是客户选择与鸿昇持续合作的重要原因之一。基于我们对客户的热忱专业服务，我们在交付产品之后，仍将持续与客户保持联络和跟进，以确保所售商品满足客户的实际需求。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -707,10 +870,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>獲取更多資料。</t>
-    </r>
-  </si>
-  <si>
+      <t>为更好的为客户提供全方位服务，鸿昇集团自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2009</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -719,7 +888,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>香港鴻昇集團的業務遍佈絕大多數中國地區，在</t>
+      <t>年起实施安装</t>
     </r>
     <r>
       <rPr>
@@ -727,7 +896,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>8</t>
+      <t>SAP</t>
     </r>
     <r>
       <rPr>
@@ -737,190 +906,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>個都市設立辦事處，銷售連接器、線束、鎖、尼龍紮帶、絕緣體、鉸鏈以及機械部件。
-公司的銷售和行銷團隊為您提供品種齊全的電子部件以及最優供應鏈和設計鏈服務支援的集成產品。我們的銷售服務專門針對原始設備製造商以及電子製造服務提供者的需求個性化定制，以本土科技全球提供服務。詳情請點擊以下連結：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-connectivity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cable Assembly &amp; Harness</t>
-  </si>
-  <si>
-    <t>PCBA </t>
-  </si>
-  <si>
-    <t>Cable Management &amp; Locking</t>
-  </si>
-  <si>
-    <t>Adhesive Materials</t>
-  </si>
-  <si>
-    <t>Label Slitting</t>
-  </si>
-  <si>
-    <t>Outdoor Film/Screen</t>
-  </si>
-  <si>
-    <t>RFID</t>
-  </si>
-  <si>
-    <t>Bread</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pastry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OEM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong Hung Shang Group has an extensive coverage in China Region, with offices in China more than 8 locations. We distribute interconnect, label, locks, cable ties, insulators, hinge and mechanical components.                                Our Sales &amp; Marketing team provides a full range of electronic component solutions and integrated products supported by the best supply-chain and design-chain services available. With distribution services tailored specifically for the needs of original equipment manufacturers and electronic manufacturing services providers, we offer global reach with local expertise. Please click below lines for more information.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cable Assembly</t>
-  </si>
-  <si>
-    <t>We have more than 30 years of experience in cable assembly. With our high quality and technical standard, we hope to support your new and on-going projects. When choosing components, we make sure to select those with certification marks like ISO9001, ISO14001, TS16949, UL/CSA and RoHS-compliant components.For more information,please visit Season website at www.season-electric.com</t>
-  </si>
-  <si>
-    <t>PCBA </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCBA and test comprises all technology combinations, including product-specific special processes. All processes are available in lead-free (RoHS-compliant) or RoHS-non compliant technology, according to customer requirements.</t>
-  </si>
-  <si>
-    <t>We specialize in:</t>
-  </si>
-  <si>
-    <t>Battery Management System (BMS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Supply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-end Telecom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automobile manufacturing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silica gel reformer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Original equipment manufacturer assembly</t>
-  </si>
-  <si>
-    <t>SMT Production Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automation Production Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Molding Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X-Ray Examination Machine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality Testing Laboratory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silicon Rubber Reforming Machine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper slitting service become an essential part in label industry. Hung Shang Group is able to converting rolls for sheeting, converting excessive roll stock into usable sizes, cutting losses from water damage, and web width reduction. Industries served include warehousing, converting, corrugation, paper mills, commercial printing, publishing, and paper brokerages.</t>
-  </si>
-  <si>
-    <t>General Process of Paper Slitting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order Receive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Selection</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Roll Cutting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label Slitting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>real time Monitoring</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper Unload &amp; Packing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Barcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deliver to  customer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Early project involvement (EPI) from design phase ideally involve with a product begins with the very early stages of the design phase. With our strong Product Manager (PM) and Design Sales Engineer (DSE), Hung Shang Group is capable to provide a full-ranged of design-in/spec-in service to our customer. Our aim is not only selling a single part to our valued customer, we hope to provide a one-stop-shop service to our customer. Our mind of thinking is solution-orientated, our PM and DSE will identify the need from customer and provide the best, optimize and cost effective solution to customer. We have below successful design-in case with our customers:</t>
-  </si>
-  <si>
-    <t>The quality of after-sales service will often have an impact on whether the customer chooses to do business with a certain company a second time. Hung Shang Group providing our customers a full range of services. Our service is not ended after we deliver the goods to our customers, we will keep contact with customer constantly to ensure our selling goods can meet customer actual need.</t>
-  </si>
-  <si>
-    <t>A successful supply chain system is efficiently transform the raw materials, components and necessary resources into a semi/full products within a certain timeframe and deliver to our customers. In order to fulfill the stringent demand from our customers, we need to operate with a standard procedure for all the major core in our supply chain system. Hung Shang Group had been implement SAP system since 2009 to ensure the traceability of our procurement, production and logistic data at all time.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hung Shang Group also has the ability to produce food &amp; beverages. Devoted to the fine art of artisan baking since 2008, Macfield Limited is on a quest to change the wholesale bakery market in Hong Kong, one crumb at a time. </t>
-  </si>
-  <si>
-    <t>For more detail information and promotion program please visit our Macfield Limited official website at www.mac-field.com.hk</t>
-  </si>
-  <si>
-    <t>With professional training, hands-on skills (we mean it literally) and a love for quality healthy food, our breadsmiths set to knead traditional artisan baking and food science together. Unlike most other wholesale bakeries, we make our bread with you in mind. If you would like to request a special size, shape or taste for your bread, simply let us know and we will work that out with you. Our breadsmiths can even advise on which bread goes with the soup on your menu!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>達成交易只是合作的開始，而我們的服務不僅結束于產品交付之時，專業貼心的售后服務同樣是我們竭盡所能提供的支持，相信這也是客戶選擇與鴻昇持續合作的重要原因之一。基於我們對客戶的熱忱專業服務，我們在交付產品之後，仍將持續与客户保持聯絡和跟進，以確保所售商品满足客户的实际需求。</t>
-  </si>
-  <si>
-    <t>达成交易只是合作的开始，而我们的服务不仅结束于产品交付之时，专业贴心的售后服务同样是我们竭尽所能提供的支持，相信这也是客户选择与鸿昇持续合作的重要原因之一。基于我们对客户的热忱专业服务，我们在交付产品之后，仍将持续与客户保持联络和跟进，以确保所售商品满足客户的实际需求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>為更好的為客戶提供全方位服務，鴻昇集團自2009年起實施安裝SAP系統，確保採購、生產和物流全時數據的可追蹤性。確保在特定的時間內高效安全的將原材料、部件和必要的資源轉換成半成品/成品并安全交付到客戶手裡，以滿足客戶的需求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>系统，确保采购、生产和物流全时数据的可追踪性。确保在特定的时间内高效地将原材料、部件和必要的资源转换成半成品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -929,89 +924,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>为更好的为客户提供全方位服务，鸿昇集团自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>2009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年起实施安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>SAP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统，确保采购、生产和物流全时数据的可追踪性。确保在特定的时间内高效地将原材料、部件和必要的资源转换成半成品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>成品并安全交付到客户手里，以满足客户的需求。</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>鴻昇集團自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>2008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年開始投入手工烘焙，集团旗下麥菲有限公司同時具有食品和飲品生產能力，尋求逐步改變香港烘焙產品批發市場。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>鸿昇集团自2008年开始投入手工烘焙，集团旗下麦菲有限公司同时具备食品和饮品的生产能力，寻求逐步改变香港烘焙产品批发市场。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1022,13 +939,32 @@
   <si>
     <t>我们的面包师经过专业培训加以对优质健康食品的热爱，将食品科技融入传统艺术烘焙。区别于绝大多数烘焙产品批发商，我们以您的需求制作面包。如果您对面包的尺寸、形状或口味有特殊要求，请直接告诉我们，我们将竭力满足。我们的面包师甚至会按照您菜单的汤品为您推荐面包搭配。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港鸿昇集團的業務遍佈絕大多數中國地區，在8個都市設立辦事處，銷售連接器、線束、鎖、尼龍紮帶、絕緣體、鉸鏈以及機械部件。
+公司的銷售和行銷團隊為您提供品種齊全的電子部件以及最優供應鏈和設計鏈服務支援的集成產品。我們的銷售服務專門針對原始設備製造商以及電子製造服務提供者的需求個性化定制，以本土科技全球提供服務。詳情請點擊以下連結：</t>
+  </si>
+  <si>
+    <t>紙張切割服務已成為標籤行業的基本組成部分。鸿昇集團能够將捲筒紙切割為紙張，大型捲筒紙切割為可用尺寸，切割水損捲筒紙以及縮減捲筒紙寬度。公司服務行業包括倉儲、紙製品加工、皺紋紙、造紙、商業印刷、出版以及紙製品經紀人業務。</t>
+  </si>
+  <si>
+    <t>設計階段的項目早期介入理想情况下在產品設計的早期開始介入。鸿昇集團實力雄厚的產品經理和設計銷售工程師為客戶提供全系列設計支持/技術支援服務。我們的宗旨是為尊貴的客戶提供單項銷售同時提供一站式服務。我們都理念定位在解決方案，產品經理和設計銷售工程師將識別客戶需求並提供最佳的性價比優化解決方案，我們為客戶提供了以下成功設計支持案例。</t>
+  </si>
+  <si>
+    <t>達成交易只是合作的開始，而我們的服務不僅結束于產品交付之時，專業貼心的售后服務同樣是我們竭盡所能提供的支持，相信這也是客戶選擇與鸿昇持續合作的重要原因之一。基於我們對客戶的熱忱專業服務，我們在交付產品之後，仍將持續与客户保持聯絡和跟進，以確保所售商品满足客户的实际需求。</t>
+  </si>
+  <si>
+    <t>為更好的為客戶提供全方位服務，鸿昇集團自2009年起實施安裝SAP系統，確保採購、生產和物流全時數據的可追蹤性。確保在特定的時間內高效安全的將原材料、部件和必要的資源轉換成半成品/成品并安全交付到客戶手裡，以滿足客戶的需求。</t>
+  </si>
+  <si>
+    <t>鸿昇集團自2008年開始投入手工烘焙，集团旗下麥菲有限公司同時具有食品和飲品生產能力，尋求逐步改變香港烘焙產品批發市場。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2423,24 +2359,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="10.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="10.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="139.7109375" style="19" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.7265625" style="19" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,10 +2395,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2470,10 +2406,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2481,10 +2417,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2492,10 +2428,10 @@
         <v>41</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
@@ -2503,10 +2439,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2514,10 +2450,10 @@
         <v>45</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -2525,10 +2461,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -2536,10 +2472,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -2547,10 +2483,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -2558,10 +2494,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
@@ -2569,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2580,21 +2516,21 @@
         <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="228.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>57</v>
       </c>
@@ -2602,10 +2538,10 @@
         <v>58</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="130.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -2613,10 +2549,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2624,10 +2560,10 @@
         <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2635,10 +2571,10 @@
         <v>61</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -2646,10 +2582,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -2657,10 +2593,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -2668,10 +2604,10 @@
         <v>65</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2679,10 +2615,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -2690,10 +2626,10 @@
         <v>67</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -2701,10 +2637,10 @@
         <v>68</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2712,10 +2648,10 @@
         <v>70</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -2726,7 +2662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2737,7 +2673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -2745,10 +2681,10 @@
         <v>74</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2756,10 +2692,10 @@
         <v>75</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
@@ -2767,10 +2703,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -2778,10 +2714,10 @@
         <v>77</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -2789,10 +2725,10 @@
         <v>78</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -2800,54 +2736,54 @@
         <v>79</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72.95" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="73" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
@@ -2855,131 +2791,131 @@
         <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.100000000000001" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="135.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="135.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+    <row r="48" spans="1:3" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="135.75" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="144.75" customHeight="1">
-      <c r="A48" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="101.1" customHeight="1">
+    <row r="49" spans="1:3" ht="101.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.95" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="16"/>
